--- a/silicom/n6010/src/comp/pmci/pmci_ip/PMCI-CSR.xlsx
+++ b/silicom/n6010/src/comp/pmci/pmci_ip/PMCI-CSR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgpcv01a-cifs.png.intel.com\psgenv\psg\data\ddambeka\pac\acadp\pmci_rtl\pmci_ss_alpha_v1p0_patch4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddambeka\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66091E45-7533-4905-B04F-CDA422FABC96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9081B251-C1A9-4EDA-8546-6739A8A126FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{71E9EDE7-B720-4BFB-B29E-00C1DEB96CFA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71E9EDE7-B720-4BFB-B29E-00C1DEB96CFA}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="503">
   <si>
     <t>Revision History</t>
   </si>
@@ -1577,6 +1577,33 @@
   </si>
   <si>
     <t>0x54 ~ 0xBC</t>
+  </si>
+  <si>
+    <t>[15:1]</t>
+  </si>
+  <si>
+    <t>[20:16]</t>
+  </si>
+  <si>
+    <t>[23:21]</t>
+  </si>
+  <si>
+    <t>[24]</t>
+  </si>
+  <si>
+    <t>[31:25]</t>
+  </si>
+  <si>
+    <t>15'd0</t>
+  </si>
+  <si>
+    <t>5'd2</t>
+  </si>
+  <si>
+    <t>Flash qSPI interface baudrate selection</t>
+  </si>
+  <si>
+    <t>Flash manufacture selector. 0-Micron, 1-Macronix</t>
   </si>
 </sst>
 </file>
@@ -1967,12 +1994,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1980,39 +2001,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2027,17 +2015,56 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2051,8 +2078,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2503,7 +2530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B688CB1-C792-4733-AAC1-E8E56A55E63E}">
   <dimension ref="A12:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -2625,7 +2652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F5E8A1-76F7-45A2-9FDE-E5CA4BCCA69A}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2640,55 +2667,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="70" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="57" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="61" t="s">
         <v>398</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="61" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="34" t="s">
@@ -2711,9 +2738,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="42" t="s">
         <v>24</v>
       </c>
@@ -2734,9 +2761,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="42" t="s">
         <v>24</v>
       </c>
@@ -2757,13 +2784,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="61" t="s">
         <v>399</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="61" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="42" t="s">
@@ -2786,9 +2813,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="42" t="s">
         <v>24</v>
       </c>
@@ -2809,9 +2836,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="42" t="s">
         <v>24</v>
       </c>
@@ -2832,9 +2859,9 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="42" t="s">
         <v>24</v>
       </c>
@@ -2884,13 +2911,13 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="61" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="34" t="s">
@@ -2913,9 +2940,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="34" t="s">
         <v>29</v>
       </c>
@@ -2936,9 +2963,9 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="34" t="s">
         <v>24</v>
       </c>
@@ -2959,9 +2986,9 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="1" t="s">
         <v>24</v>
       </c>
@@ -2982,9 +3009,9 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="1" t="s">
         <v>24</v>
       </c>
@@ -3005,9 +3032,9 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="1" t="s">
         <v>24</v>
       </c>
@@ -3028,9 +3055,9 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="1" t="s">
         <v>29</v>
       </c>
@@ -3051,9 +3078,9 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
@@ -3074,13 +3101,13 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="64" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="34" t="s">
@@ -3103,9 +3130,9 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="34" t="s">
         <v>24</v>
       </c>
@@ -3126,13 +3153,13 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="61" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="34" t="s">
@@ -3155,9 +3182,9 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="34" t="s">
         <v>24</v>
       </c>
@@ -3178,9 +3205,9 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="43" t="s">
         <v>24</v>
       </c>
@@ -3201,9 +3228,9 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="43" t="s">
         <v>24</v>
       </c>
@@ -3224,9 +3251,9 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="61"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="34" t="s">
         <v>24</v>
       </c>
@@ -3276,13 +3303,13 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="54" t="s">
         <v>417</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="54" t="s">
         <v>418</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="54" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="45" t="s">
@@ -3305,9 +3332,9 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="57"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="45" t="s">
         <v>24</v>
       </c>
@@ -3328,9 +3355,9 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
       <c r="D29" s="45" t="s">
         <v>24</v>
       </c>
@@ -3351,9 +3378,9 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
       <c r="D30" s="45" t="s">
         <v>24</v>
       </c>
@@ -3374,9 +3401,9 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
       <c r="D31" s="45" t="s">
         <v>24</v>
       </c>
@@ -3397,9 +3424,9 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="58"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
       <c r="D32" s="45" t="s">
         <v>24</v>
       </c>
@@ -3449,19 +3476,19 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="56" t="s">
+      <c r="D34" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="54" t="s">
         <v>25</v>
       </c>
       <c r="F34" s="46" t="s">
@@ -3478,11 +3505,11 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="57"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
       <c r="F35" s="46" t="s">
         <v>77</v>
       </c>
@@ -3497,11 +3524,11 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="57"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
       <c r="F36" s="46" t="s">
         <v>80</v>
       </c>
@@ -3516,11 +3543,11 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
       <c r="F37" s="46" t="s">
         <v>84</v>
       </c>
@@ -3564,19 +3591,19 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="56" t="s">
+      <c r="B39" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="56" t="s">
+      <c r="D39" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="54" t="s">
         <v>25</v>
       </c>
       <c r="F39" s="46" t="s">
@@ -3593,11 +3620,11 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="58"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
       <c r="F40" s="46" t="s">
         <v>94</v>
       </c>
@@ -3612,19 +3639,19 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="56" t="s">
+      <c r="D41" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="54" t="s">
         <v>25</v>
       </c>
       <c r="F41" s="46" t="s">
@@ -3641,11 +3668,11 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A42" s="58"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
       <c r="F42" s="46" t="s">
         <v>94</v>
       </c>
@@ -3660,19 +3687,19 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="56" t="s">
+      <c r="A43" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="56" t="s">
+      <c r="D43" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="54" t="s">
         <v>25</v>
       </c>
       <c r="F43" s="46" t="s">
@@ -3689,11 +3716,11 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
       <c r="F44" s="46" t="s">
         <v>94</v>
       </c>
@@ -3708,19 +3735,19 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="56" t="s">
+      <c r="C45" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="56" t="s">
+      <c r="D45" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="54" t="s">
         <v>25</v>
       </c>
       <c r="F45" s="46" t="s">
@@ -3737,11 +3764,11 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="58"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
       <c r="F46" s="46" t="s">
         <v>94</v>
       </c>
@@ -3756,19 +3783,19 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="56" t="s">
+      <c r="A47" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="56" t="s">
+      <c r="D47" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="54" t="s">
         <v>25</v>
       </c>
       <c r="F47" s="46" t="s">
@@ -3785,11 +3812,11 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="58"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
       <c r="F48" s="46" t="s">
         <v>118</v>
       </c>
@@ -3833,19 +3860,19 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="56" t="s">
+      <c r="A50" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="C50" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="56" t="s">
+      <c r="D50" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="54" t="s">
         <v>25</v>
       </c>
       <c r="F50" s="46" t="s">
@@ -3862,11 +3889,11 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="58"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
+      <c r="A51" s="56"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
       <c r="F51" s="46" t="s">
         <v>94</v>
       </c>
@@ -3939,13 +3966,13 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="56" t="s">
+      <c r="A54" s="54" t="s">
         <v>449</v>
       </c>
-      <c r="B54" s="56" t="s">
+      <c r="B54" s="54" t="s">
         <v>336</v>
       </c>
-      <c r="C54" s="56" t="s">
+      <c r="C54" s="54" t="s">
         <v>23</v>
       </c>
       <c r="D54" s="46" t="s">
@@ -3968,9 +3995,9 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="57"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="57"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="55"/>
       <c r="D55" s="46" t="s">
         <v>24</v>
       </c>
@@ -3991,9 +4018,9 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="58"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
+      <c r="A56" s="56"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="56"/>
       <c r="D56" s="45" t="s">
         <v>24</v>
       </c>
@@ -4043,13 +4070,13 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="56" t="s">
+      <c r="A58" s="54" t="s">
         <v>457</v>
       </c>
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="54" t="s">
         <v>349</v>
       </c>
-      <c r="C58" s="56" t="s">
+      <c r="C58" s="54" t="s">
         <v>23</v>
       </c>
       <c r="D58" s="46" t="s">
@@ -4072,9 +4099,9 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="58"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
+      <c r="A59" s="56"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="56"/>
       <c r="D59" s="46" t="s">
         <v>24</v>
       </c>
@@ -4124,13 +4151,13 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="62" t="s">
+      <c r="A61" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="B61" s="62" t="s">
+      <c r="B61" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="C61" s="62" t="s">
+      <c r="C61" s="65" t="s">
         <v>23</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -4153,9 +4180,9 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="63"/>
-      <c r="B62" s="63"/>
-      <c r="C62" s="63"/>
+      <c r="A62" s="66"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="66"/>
       <c r="D62" s="1" t="s">
         <v>132</v>
       </c>
@@ -4176,9 +4203,9 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A63" s="63"/>
-      <c r="B63" s="63"/>
-      <c r="C63" s="63"/>
+      <c r="A63" s="66"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="66"/>
       <c r="D63" s="1" t="s">
         <v>29</v>
       </c>
@@ -4199,9 +4226,9 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="64"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="64"/>
+      <c r="A64" s="67"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="67"/>
       <c r="D64" s="1" t="s">
         <v>24</v>
       </c>
@@ -4309,13 +4336,13 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="66" t="s">
+      <c r="A68" s="71" t="s">
         <v>461</v>
       </c>
-      <c r="B68" s="66" t="s">
+      <c r="B68" s="71" t="s">
         <v>462</v>
       </c>
-      <c r="C68" s="66" t="s">
+      <c r="C68" s="71" t="s">
         <v>23</v>
       </c>
       <c r="D68" s="50" t="s">
@@ -4338,9 +4365,9 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="67"/>
-      <c r="B69" s="67"/>
-      <c r="C69" s="67"/>
+      <c r="A69" s="72"/>
+      <c r="B69" s="72"/>
+      <c r="C69" s="72"/>
       <c r="D69" s="50" t="s">
         <v>29</v>
       </c>
@@ -4361,9 +4388,9 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="68"/>
-      <c r="B70" s="68"/>
-      <c r="C70" s="68"/>
+      <c r="A70" s="73"/>
+      <c r="B70" s="73"/>
+      <c r="C70" s="73"/>
       <c r="D70" s="50" t="s">
         <v>29</v>
       </c>
@@ -4384,13 +4411,13 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="66" t="s">
+      <c r="A71" s="71" t="s">
         <v>468</v>
       </c>
-      <c r="B71" s="66" t="s">
+      <c r="B71" s="71" t="s">
         <v>469</v>
       </c>
-      <c r="C71" s="66" t="s">
+      <c r="C71" s="71" t="s">
         <v>23</v>
       </c>
       <c r="D71" s="50" t="s">
@@ -4413,9 +4440,9 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="67"/>
-      <c r="B72" s="67"/>
-      <c r="C72" s="67"/>
+      <c r="A72" s="72"/>
+      <c r="B72" s="72"/>
+      <c r="C72" s="72"/>
       <c r="D72" s="50" t="s">
         <v>24</v>
       </c>
@@ -4436,9 +4463,9 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="67"/>
-      <c r="B73" s="67"/>
-      <c r="C73" s="67"/>
+      <c r="A73" s="72"/>
+      <c r="B73" s="72"/>
+      <c r="C73" s="72"/>
       <c r="D73" s="50" t="s">
         <v>24</v>
       </c>
@@ -4459,9 +4486,9 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="68"/>
-      <c r="B74" s="68"/>
-      <c r="C74" s="68"/>
+      <c r="A74" s="73"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="73"/>
       <c r="D74" s="50" t="s">
         <v>24</v>
       </c>
@@ -4482,13 +4509,13 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="66" t="s">
+      <c r="A75" s="71" t="s">
         <v>485</v>
       </c>
-      <c r="B75" s="66" t="s">
+      <c r="B75" s="71" t="s">
         <v>477</v>
       </c>
-      <c r="C75" s="66" t="s">
+      <c r="C75" s="71" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="50" t="s">
@@ -4511,9 +4538,9 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="67"/>
-      <c r="B76" s="67"/>
-      <c r="C76" s="67"/>
+      <c r="A76" s="72"/>
+      <c r="B76" s="72"/>
+      <c r="C76" s="72"/>
       <c r="D76" s="50" t="s">
         <v>24</v>
       </c>
@@ -4534,9 +4561,9 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="67"/>
-      <c r="B77" s="67"/>
-      <c r="C77" s="67"/>
+      <c r="A77" s="72"/>
+      <c r="B77" s="72"/>
+      <c r="C77" s="72"/>
       <c r="D77" s="50" t="s">
         <v>24</v>
       </c>
@@ -4557,9 +4584,9 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="68"/>
-      <c r="B78" s="68"/>
-      <c r="C78" s="68"/>
+      <c r="A78" s="73"/>
+      <c r="B78" s="73"/>
+      <c r="C78" s="73"/>
       <c r="D78" s="50" t="s">
         <v>24</v>
       </c>
@@ -4696,13 +4723,13 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A83" s="54" t="s">
+      <c r="A83" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="B83" s="54" t="s">
+      <c r="B83" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="C83" s="54">
+      <c r="C83" s="68">
         <v>64</v>
       </c>
       <c r="D83" s="10" t="s">
@@ -4725,9 +4752,9 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A84" s="65"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
+      <c r="A84" s="69"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="69"/>
       <c r="D84" s="10" t="s">
         <v>25</v>
       </c>
@@ -4748,9 +4775,9 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="55"/>
-      <c r="B85" s="55"/>
-      <c r="C85" s="55"/>
+      <c r="A85" s="70"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="70"/>
       <c r="D85" s="10" t="s">
         <v>25</v>
       </c>
@@ -4859,42 +4886,36 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="A34:A37"/>
@@ -4911,36 +4932,42 @@
     <mergeCell ref="C21:C25"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4949,11 +4976,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65309297-099A-4645-B95A-086950AF04BB}">
-  <dimension ref="A1:M90"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:A25"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4973,62 +5000,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="74" t="s">
         <v>173</v>
       </c>
       <c r="C1" s="81" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="81"/>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="H1" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="82" t="s">
+      <c r="K1" s="75" t="s">
         <v>177</v>
       </c>
       <c r="L1" s="38"/>
-      <c r="M1" s="82" t="s">
+      <c r="M1" s="75" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
       <c r="C2" s="37" t="s">
         <v>179</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
       <c r="L2" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="M2" s="82"/>
+      <c r="M2" s="75"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="78" t="s">
@@ -5047,13 +5074,13 @@
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="65" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -5079,9 +5106,9 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
@@ -5101,13 +5128,13 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="65" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -5122,18 +5149,18 @@
       <c r="G6" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="62"/>
+      <c r="I6" s="65"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
@@ -5146,20 +5173,20 @@
       <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="65" t="s">
         <v>436</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="65" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -5174,18 +5201,18 @@
       <c r="G8" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="H8" s="62" t="s">
+      <c r="H8" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="I8" s="62"/>
+      <c r="I8" s="65"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="64"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
@@ -5198,20 +5225,20 @@
       <c r="G9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="65" t="s">
         <v>437</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="65" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -5226,546 +5253,542 @@
       <c r="G10" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="H10" s="62" t="s">
+      <c r="H10" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="I10" s="62"/>
+      <c r="I10" s="65"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>195</v>
+        <v>494</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>499</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>495</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>67</v>
+        <v>500</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="I12" s="40"/>
+        <v>501</v>
+      </c>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="66"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>496</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>67</v>
+        <v>428</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="I13" s="35"/>
+        <v>18</v>
+      </c>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
-        <v>440</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="66"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>19</v>
+        <v>497</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="I14" s="35"/>
+        <v>502</v>
+      </c>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
-        <v>441</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>25</v>
-      </c>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>498</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="I15" s="35"/>
+        <v>18</v>
+      </c>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+    <row r="16" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="I16" s="40"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+    <row r="17" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="I17" s="35"/>
+      <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="78" t="s">
-        <v>202</v>
-      </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="80"/>
+    <row r="18" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="40" t="s">
+        <v>440</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="I18" s="35"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="62" t="s">
-        <v>183</v>
-      </c>
-      <c r="B19" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="C19" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="62" t="s">
-        <v>25</v>
+    <row r="19" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>188</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="I19" s="35"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A21" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="B21" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="H21" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="I21" s="62"/>
-      <c r="J21" s="6"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="78" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="80"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="64"/>
+      <c r="A23" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>25</v>
+      </c>
       <c r="E23" s="1" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
+        <v>186</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="62" t="s">
-        <v>207</v>
-      </c>
-      <c r="B24" s="62" t="s">
-        <v>208</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="62" t="s">
-        <v>25</v>
-      </c>
+      <c r="A24" s="67"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
       <c r="E24" s="1" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H24" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="I24" s="1"/>
+        <v>190</v>
+      </c>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64"/>
+    <row r="25" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A25" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>192</v>
+      </c>
       <c r="C25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="64"/>
+        <v>29</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>25</v>
+      </c>
       <c r="E25" s="1" t="s">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="64"/>
-      <c r="I25" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="H25" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="I25" s="65"/>
+      <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
+    <row r="26" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="66"/>
+      <c r="E26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="67"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="67"/>
+      <c r="E27" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H28" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="I28" s="1"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="6"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="67"/>
+      <c r="E29" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="67"/>
+      <c r="I29" s="1"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H30" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="J30" s="6"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="B31" s="59" t="s">
-        <v>192</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H31" s="59" t="s">
-        <v>221</v>
-      </c>
-      <c r="I31" s="59"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="60"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="60"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="34"/>
-      <c r="G33" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
+      <c r="A33" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="80"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="60"/>
-      <c r="B34" s="60"/>
+    <row r="34" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A34" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>184</v>
+      </c>
       <c r="C34" s="34" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="34"/>
+        <v>19</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="G34" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
+        <v>216</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>218</v>
+      </c>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="60"/>
-      <c r="B35" s="60"/>
+      <c r="A35" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="B35" s="61" t="s">
+        <v>192</v>
+      </c>
       <c r="C35" s="34" t="s">
         <v>24</v>
       </c>
@@ -5773,18 +5796,25 @@
         <v>29</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="F35" s="34"/>
+        <v>26</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="G35" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
+        <v>220</v>
+      </c>
+      <c r="H35" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="I35" s="61"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="60"/>
-      <c r="B36" s="60"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="62"/>
       <c r="C36" s="34" t="s">
         <v>24</v>
       </c>
@@ -5792,18 +5822,21 @@
         <v>29</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>227</v>
+        <v>30</v>
       </c>
       <c r="F36" s="34"/>
       <c r="G36" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
+        <v>222</v>
+      </c>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="62"/>
       <c r="C37" s="34" t="s">
         <v>24</v>
       </c>
@@ -5811,21 +5844,21 @@
         <v>29</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>229</v>
+        <v>33</v>
       </c>
       <c r="F37" s="34"/>
       <c r="G37" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
+        <v>223</v>
+      </c>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="60"/>
-      <c r="B38" s="60"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="62"/>
       <c r="C38" s="34" t="s">
         <v>24</v>
       </c>
@@ -5833,21 +5866,21 @@
         <v>29</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="F38" s="34"/>
-      <c r="G38" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
+      <c r="G38" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="62"/>
       <c r="C39" s="34" t="s">
         <v>24</v>
       </c>
@@ -5855,21 +5888,18 @@
         <v>29</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-    </row>
-    <row r="40" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="60"/>
-      <c r="B40" s="60"/>
+        <v>226</v>
+      </c>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="62"/>
+      <c r="B40" s="62"/>
       <c r="C40" s="34" t="s">
         <v>24</v>
       </c>
@@ -5877,18 +5907,18 @@
         <v>29</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F40" s="34"/>
-      <c r="G40" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-    </row>
-    <row r="41" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="61"/>
-      <c r="B41" s="61"/>
+      <c r="G40" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="62"/>
+      <c r="B41" s="62"/>
       <c r="C41" s="34" t="s">
         <v>24</v>
       </c>
@@ -5896,318 +5926,280 @@
         <v>29</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F41" s="34"/>
       <c r="G41" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="34"/>
+      <c r="G42" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="62"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="F43" s="34"/>
+      <c r="G43" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="62"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="F44" s="34"/>
+      <c r="G44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
+    </row>
+    <row r="45" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="63"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="F45" s="34"/>
+      <c r="G45" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-    </row>
-    <row r="42" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="34" t="s">
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+    </row>
+    <row r="46" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B46" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="C42" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="34" t="s">
+      <c r="C46" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="F46" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="H42" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="1:12" s="6" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A43" s="34" t="s">
+      <c r="H46" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:12" s="6" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A47" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B47" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C47" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="34" t="s">
+      <c r="D47" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" s="3" t="s">
+      <c r="F47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="H43" s="34" t="s">
+      <c r="H47" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I47" s="7" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="6" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A44" s="34" t="s">
+    <row r="48" spans="1:12" s="6" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A48" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="B44" s="34" t="str">
-        <f>"0x"&amp;DEC2HEX(HEX2DEC(RIGHT(B43, LEN(B43)-2))+4)</f>
+      <c r="B48" s="34" t="str">
+        <f>"0x"&amp;DEC2HEX(HEX2DEC(RIGHT(B47, LEN(B47)-2))+4)</f>
         <v>0x14</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C48" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="34" t="s">
+      <c r="D48" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" s="3" t="s">
+      <c r="F48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="H44" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="7"/>
-    </row>
-    <row r="45" spans="1:12" s="6" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A45" s="34" t="s">
+      <c r="H48" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:12" s="6" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A49" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="B45" s="34" t="str">
-        <f t="shared" ref="B45:B58" si="0">"0x"&amp;DEC2HEX(HEX2DEC(RIGHT(B44, LEN(B44)-2))+4)</f>
+      <c r="B49" s="34" t="str">
+        <f t="shared" ref="B49:B62" si="0">"0x"&amp;DEC2HEX(HEX2DEC(RIGHT(B48, LEN(B48)-2))+4)</f>
         <v>0x18</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C49" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="34" t="s">
+      <c r="D49" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" s="3" t="s">
+      <c r="F49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="H45" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A46" s="34" t="s">
+      <c r="H49" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A50" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="B46" s="34" t="str">
+      <c r="B50" s="34" t="str">
         <f t="shared" si="0"/>
         <v>0x1C</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C50" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="34" t="s">
+      <c r="D50" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" s="3" t="s">
+      <c r="F50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="H46" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A47" s="34" t="s">
+      <c r="H50" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="7"/>
+    </row>
+    <row r="51" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A51" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="B47" s="34" t="str">
+      <c r="B51" s="34" t="str">
         <f t="shared" si="0"/>
         <v>0x20</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C51" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="34" t="s">
+      <c r="D51" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" s="3" t="s">
+      <c r="F51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="H47" s="34" t="s">
+      <c r="H51" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I51" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-    </row>
-    <row r="48" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A48" s="34" t="s">
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+    </row>
+    <row r="52" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A52" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="B48" s="34" t="str">
+      <c r="B52" s="34" t="str">
         <f t="shared" si="0"/>
         <v>0x24</v>
       </c>
-      <c r="C48" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="H48" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-    </row>
-    <row r="49" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A49" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="B49" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>0x28</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="H49" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A50" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="B50" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>0x2C</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="H50" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A51" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="B51" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>0x30</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="H51" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A52" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="B52" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>0x34</v>
-      </c>
       <c r="C52" s="34" t="s">
         <v>29</v>
       </c>
@@ -6221,10 +6213,10 @@
         <v>20</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H52" s="34" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="I52" s="7" t="s">
         <v>241</v>
@@ -6235,11 +6227,11 @@
     </row>
     <row r="53" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A53" s="34" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B53" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>0x38</v>
+        <v>0x28</v>
       </c>
       <c r="C53" s="34" t="s">
         <v>29</v>
@@ -6254,25 +6246,22 @@
         <v>20</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H53" s="34" t="s">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
     </row>
     <row r="54" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A54" s="34" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B54" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>0x3C</v>
+        <v>0x2C</v>
       </c>
       <c r="C54" s="34" t="s">
         <v>29</v>
@@ -6287,7 +6276,7 @@
         <v>20</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H54" s="34" t="s">
         <v>20</v>
@@ -6295,17 +6284,14 @@
       <c r="I54" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
     </row>
     <row r="55" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A55" s="34" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B55" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>0x40</v>
+        <v>0x30</v>
       </c>
       <c r="C55" s="34" t="s">
         <v>29</v>
@@ -6320,7 +6306,7 @@
         <v>20</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H55" s="34" t="s">
         <v>20</v>
@@ -6328,17 +6314,14 @@
       <c r="I55" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
     </row>
     <row r="56" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A56" s="34" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B56" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>0x44</v>
+        <v>0x34</v>
       </c>
       <c r="C56" s="34" t="s">
         <v>29</v>
@@ -6353,7 +6336,7 @@
         <v>20</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H56" s="34" t="s">
         <v>20</v>
@@ -6367,32 +6350,32 @@
     </row>
     <row r="57" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A57" s="34" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B57" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>0x48</v>
+        <v>0x38</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E57" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F57" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" s="34" t="s">
-        <v>269</v>
+      <c r="F57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="H57" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" s="34" t="s">
-        <v>20</v>
+        <v>201</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
@@ -6400,32 +6383,32 @@
     </row>
     <row r="58" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A58" s="34" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B58" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>0x4C</v>
+        <v>0x3C</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E58" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F58" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" s="34" t="s">
-        <v>271</v>
+      <c r="F58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="H58" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I58" s="34" t="s">
-        <v>20</v>
+      <c r="I58" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
@@ -6433,76 +6416,83 @@
     </row>
     <row r="59" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A59" s="34" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B59" s="34" t="str">
-        <f>"0x"&amp;DEC2HEX(HEX2DEC(RIGHT(B57, LEN(B57)-2))+4)</f>
-        <v>0x4C</v>
+        <f t="shared" si="0"/>
+        <v>0x40</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D59" s="34" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E59" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F59" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" s="34" t="s">
-        <v>273</v>
+      <c r="F59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="H59" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I59" s="34" t="s">
-        <v>20</v>
-      </c>
+      <c r="I59" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
     </row>
     <row r="60" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A60" s="34" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B60" s="34" t="str">
-        <f>"0x"&amp;DEC2HEX(HEX2DEC(RIGHT(B58, LEN(B58)-2))+4)</f>
-        <v>0x50</v>
+        <f t="shared" si="0"/>
+        <v>0x44</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E60" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F60" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" s="34" t="s">
-        <v>275</v>
+      <c r="F60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="H60" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I60" s="34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I60" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+    </row>
+    <row r="61" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A61" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61" s="34" t="s">
-        <v>276</v>
+        <v>268</v>
+      </c>
+      <c r="B61" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>0x48</v>
       </c>
       <c r="C61" s="34" t="s">
         <v>24</v>
       </c>
       <c r="D61" s="34" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E61" s="34" t="s">
         <v>19</v>
@@ -6510,20 +6500,26 @@
       <c r="F61" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G61" s="3"/>
+      <c r="G61" s="34" t="s">
+        <v>269</v>
+      </c>
       <c r="H61" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I61" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+    </row>
+    <row r="62" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A62" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="B62" s="34" t="s">
-        <v>280</v>
+        <v>270</v>
+      </c>
+      <c r="B62" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>0x4C</v>
       </c>
       <c r="C62" s="34" t="s">
         <v>24</v>
@@ -6537,23 +6533,26 @@
       <c r="F62" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>281</v>
+      <c r="G62" s="34" t="s">
+        <v>271</v>
       </c>
       <c r="H62" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I62" s="7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I62" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A63" s="34" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B63" s="34" t="str">
-        <f>"0x"&amp;DEC2HEX(HEX2DEC(RIGHT(B62, LEN(B62)-2))+4)</f>
-        <v>0x74</v>
+        <f>"0x"&amp;DEC2HEX(HEX2DEC(RIGHT(B61, LEN(B61)-2))+4)</f>
+        <v>0x4C</v>
       </c>
       <c r="C63" s="34" t="s">
         <v>24</v>
@@ -6567,23 +6566,23 @@
       <c r="F63" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G63" s="3" t="s">
-        <v>284</v>
+      <c r="G63" s="34" t="s">
+        <v>273</v>
       </c>
       <c r="H63" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I63" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A64" s="34" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B64" s="34" t="str">
-        <f t="shared" ref="B64:B81" si="1">"0x"&amp;DEC2HEX(HEX2DEC(RIGHT(B63, LEN(B63)-2))+4)</f>
-        <v>0x78</v>
+        <f>"0x"&amp;DEC2HEX(HEX2DEC(RIGHT(B62, LEN(B62)-2))+4)</f>
+        <v>0x50</v>
       </c>
       <c r="C64" s="34" t="s">
         <v>24</v>
@@ -6597,798 +6596,914 @@
       <c r="F64" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G64" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="H64" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A65" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A66" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H66" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="B67" s="34" t="str">
+        <f>"0x"&amp;DEC2HEX(HEX2DEC(RIGHT(B66, LEN(B66)-2))+4)</f>
+        <v>0x74</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H67" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="B68" s="34" t="str">
+        <f t="shared" ref="B68:B85" si="1">"0x"&amp;DEC2HEX(HEX2DEC(RIGHT(B67, LEN(B67)-2))+4)</f>
+        <v>0x78</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="H64" s="34" t="s">
+      <c r="H68" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="I64" s="7" t="s">
+      <c r="I68" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="34" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="B65" s="34" t="str">
+      <c r="B69" s="34" t="str">
         <f t="shared" si="1"/>
         <v>0x7C</v>
       </c>
-      <c r="C65" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" s="34" t="s">
+      <c r="C69" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E65" s="34" t="s">
+      <c r="E69" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F65" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" s="3" t="s">
+      <c r="F69" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="H65" s="34" t="s">
+      <c r="H69" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="I65" s="7" t="s">
+      <c r="I69" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="34" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="B66" s="34" t="str">
+      <c r="B70" s="34" t="str">
         <f t="shared" si="1"/>
         <v>0x80</v>
       </c>
-      <c r="C66" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" s="34" t="s">
+      <c r="C70" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E66" s="34" t="s">
+      <c r="E70" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F66" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" s="3" t="s">
+      <c r="F70" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="H66" s="34" t="s">
+      <c r="H70" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="I66" s="7" t="s">
+      <c r="I70" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="34" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="B67" s="34" t="str">
+      <c r="B71" s="34" t="str">
         <f t="shared" si="1"/>
         <v>0x84</v>
       </c>
-      <c r="C67" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D67" s="34" t="s">
+      <c r="C71" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E67" s="34" t="s">
+      <c r="E71" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F67" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" s="3" t="s">
+      <c r="F71" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="H67" s="34" t="s">
+      <c r="H71" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="I67" s="7" t="s">
+      <c r="I71" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A68" s="34" t="s">
+    <row r="72" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A72" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="B68" s="34" t="str">
+      <c r="B72" s="34" t="str">
         <f t="shared" si="1"/>
         <v>0x88</v>
       </c>
-      <c r="C68" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D68" s="34" t="s">
+      <c r="C72" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E68" s="34" t="s">
+      <c r="E72" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F68" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" s="3" t="s">
+      <c r="F72" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="H68" s="34"/>
-      <c r="I68" s="7" t="s">
+      <c r="H72" s="34"/>
+      <c r="I72" s="7" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A69" s="34" t="s">
+    <row r="73" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A73" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="B69" s="34" t="str">
+      <c r="B73" s="34" t="str">
         <f t="shared" si="1"/>
         <v>0x8C</v>
       </c>
-      <c r="C69" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" s="34" t="s">
+      <c r="C73" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E69" s="34" t="s">
+      <c r="E73" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F69" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" s="3" t="s">
+      <c r="F73" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="H69" s="34" t="s">
+      <c r="H73" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="I69" s="7" t="s">
+      <c r="I73" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A70" s="34" t="s">
+    <row r="74" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A74" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="B70" s="34" t="str">
+      <c r="B74" s="34" t="str">
         <f t="shared" si="1"/>
         <v>0x90</v>
       </c>
-      <c r="C70" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70" s="34" t="s">
+      <c r="C74" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E70" s="34" t="s">
+      <c r="E74" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F70" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" s="3" t="s">
+      <c r="F74" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="H70" s="34" t="s">
+      <c r="H74" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="I70" s="7" t="s">
+      <c r="I74" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A71" s="34" t="s">
+    <row r="75" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A75" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="B71" s="34" t="str">
+      <c r="B75" s="34" t="str">
         <f t="shared" si="1"/>
         <v>0x94</v>
       </c>
-      <c r="C71" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71" s="34" t="s">
+      <c r="C75" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E71" s="34" t="s">
+      <c r="E75" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F71" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" s="3" t="s">
+      <c r="F75" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="H71" s="34" t="s">
+      <c r="H75" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="I71" s="7" t="s">
+      <c r="I75" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A72" s="34" t="s">
+    <row r="76" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A76" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="B72" s="34" t="str">
+      <c r="B76" s="34" t="str">
         <f t="shared" si="1"/>
         <v>0x98</v>
       </c>
-      <c r="C72" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" s="34" t="s">
+      <c r="C76" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E72" s="34" t="s">
+      <c r="E76" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F72" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="F76" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G76" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="H72" s="34" t="s">
+      <c r="H76" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="I72" s="7" t="s">
+      <c r="I76" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A73" s="34" t="s">
+    <row r="77" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A77" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="B73" s="34" t="str">
+      <c r="B77" s="34" t="str">
         <f t="shared" si="1"/>
         <v>0x9C</v>
       </c>
-      <c r="C73" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73" s="34" t="s">
+      <c r="C77" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E73" s="34" t="s">
+      <c r="E77" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F73" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" s="3" t="s">
+      <c r="F77" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="H73" s="34" t="s">
+      <c r="H77" s="34" t="s">
         <v>313</v>
       </c>
-      <c r="I73" s="7" t="s">
+      <c r="I77" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A74" s="34" t="s">
+    <row r="78" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A78" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="B74" s="34" t="str">
+      <c r="B78" s="34" t="str">
         <f t="shared" si="1"/>
         <v>0xA0</v>
       </c>
-      <c r="C74" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D74" s="34" t="s">
+      <c r="C78" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E74" s="34" t="s">
+      <c r="E78" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F74" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" s="3" t="s">
+      <c r="F78" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="H74" s="34" t="s">
+      <c r="H78" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="I74" s="7" t="s">
+      <c r="I78" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A75" s="34" t="s">
+    <row r="79" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A79" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="B75" s="34" t="str">
+      <c r="B79" s="34" t="str">
         <f t="shared" si="1"/>
         <v>0xA4</v>
       </c>
-      <c r="C75" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D75" s="34" t="s">
+      <c r="C79" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E75" s="34" t="s">
+      <c r="E79" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F75" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" s="3" t="s">
+      <c r="F79" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="H75" s="34" t="s">
+      <c r="H79" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="I75" s="7" t="s">
+      <c r="I79" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A76" s="34" t="s">
+    <row r="80" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A80" s="34" t="s">
         <v>320</v>
       </c>
-      <c r="B76" s="34" t="str">
+      <c r="B80" s="34" t="str">
         <f t="shared" si="1"/>
         <v>0xA8</v>
       </c>
-      <c r="C76" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" s="34" t="s">
+      <c r="C80" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E76" s="34" t="s">
+      <c r="E80" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F76" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" s="3" t="s">
+      <c r="F80" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="H76" s="34" t="s">
+      <c r="H80" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="I76" s="7" t="s">
+      <c r="I80" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A77" s="34" t="s">
+    <row r="81" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A81" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="B77" s="34" t="str">
+      <c r="B81" s="34" t="str">
         <f t="shared" si="1"/>
         <v>0xAC</v>
       </c>
-      <c r="C77" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D77" s="34" t="s">
+      <c r="C81" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E77" s="34" t="s">
+      <c r="E81" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F77" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" s="3" t="s">
+      <c r="F81" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="H77" s="34" t="s">
+      <c r="H81" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="I77" s="7" t="s">
+      <c r="I81" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A78" s="34" t="s">
+    <row r="82" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A82" s="34" t="s">
         <v>326</v>
       </c>
-      <c r="B78" s="34" t="str">
+      <c r="B82" s="34" t="str">
         <f t="shared" si="1"/>
         <v>0xB0</v>
       </c>
-      <c r="C78" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" s="34" t="s">
+      <c r="C82" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E78" s="34" t="s">
+      <c r="E82" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F78" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" s="7" t="s">
+      <c r="F82" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="H78" s="34" t="s">
+      <c r="H82" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="I78" s="7" t="s">
+      <c r="I82" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A79" s="34" t="s">
+    <row r="83" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A83" s="34" t="s">
         <v>328</v>
       </c>
-      <c r="B79" s="34" t="str">
+      <c r="B83" s="34" t="str">
         <f t="shared" si="1"/>
         <v>0xB4</v>
       </c>
-      <c r="C79" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" s="34" t="s">
+      <c r="C83" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E79" s="34" t="s">
+      <c r="E83" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F79" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" s="7" t="s">
+      <c r="F83" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="H79" s="34" t="s">
+      <c r="H83" s="34" t="s">
         <v>329</v>
       </c>
-      <c r="I79" s="7" t="s">
+      <c r="I83" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A80" s="34" t="s">
+    <row r="84" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A84" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="B80" s="34" t="str">
+      <c r="B84" s="34" t="str">
         <f t="shared" si="1"/>
         <v>0xB8</v>
       </c>
-      <c r="C80" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" s="34" t="s">
+      <c r="C84" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E80" s="34" t="s">
+      <c r="E84" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F80" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" s="7" t="s">
+      <c r="F84" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="H80" s="34" t="s">
+      <c r="H84" s="34" t="s">
         <v>331</v>
       </c>
-      <c r="I80" s="7" t="s">
+      <c r="I84" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A81" s="34" t="s">
+    <row r="85" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A85" s="34" t="s">
         <v>332</v>
       </c>
-      <c r="B81" s="34" t="str">
+      <c r="B85" s="34" t="str">
         <f t="shared" si="1"/>
         <v>0xBC</v>
       </c>
-      <c r="C81" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D81" s="34" t="s">
+      <c r="C85" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E81" s="34" t="s">
+      <c r="E85" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F81" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" s="7" t="s">
+      <c r="F85" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="H81" s="34" t="s">
+      <c r="H85" s="34" t="s">
         <v>333</v>
       </c>
-      <c r="I81" s="7" t="s">
+      <c r="I85" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A82" s="34" t="s">
+    <row r="86" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A86" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B82" s="34" t="s">
+      <c r="B86" s="34" t="s">
         <v>334</v>
       </c>
-      <c r="C82" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D82" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" s="34" t="s">
+      <c r="C86" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D86" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F82" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" s="3"/>
-      <c r="H82" s="34" t="s">
+      <c r="F86" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" s="3"/>
+      <c r="H86" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="I82" s="7" t="s">
+      <c r="I86" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="62" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="65" t="s">
         <v>335</v>
       </c>
-      <c r="B83" s="62" t="s">
+      <c r="B87" s="65" t="s">
         <v>336</v>
       </c>
-      <c r="C83" s="62" t="s">
+      <c r="C87" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D83" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="E83" s="1" t="s">
+      <c r="D87" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G87" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="H83" s="62" t="s">
+      <c r="H87" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="I83" s="74" t="s">
+      <c r="I87" s="76" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="63"/>
-      <c r="B84" s="63"/>
-      <c r="C84" s="63"/>
-      <c r="D84" s="63"/>
-      <c r="E84" s="1" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="66"/>
+      <c r="B88" s="66"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H84" s="63"/>
-      <c r="I84" s="75"/>
-    </row>
-    <row r="85" spans="1:9" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A85" s="63"/>
-      <c r="B85" s="63"/>
-      <c r="C85" s="63"/>
-      <c r="D85" s="63"/>
-      <c r="E85" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="H85" s="63"/>
-      <c r="I85" s="75"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="64"/>
-      <c r="B86" s="64"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="64"/>
-      <c r="E86" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H86" s="64"/>
-      <c r="I86" s="76"/>
-    </row>
-    <row r="87" spans="1:9" ht="51" x14ac:dyDescent="0.3">
-      <c r="A87" s="62" t="s">
-        <v>342</v>
-      </c>
-      <c r="B87" s="62" t="s">
-        <v>343</v>
-      </c>
-      <c r="C87" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="D87" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="H87" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="I87" s="74" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="64"/>
-      <c r="B88" s="64"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="F88" s="1" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H88" s="64"/>
-      <c r="I88" s="76"/>
-    </row>
-    <row r="89" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A89" s="36" t="s">
+      <c r="H88" s="66"/>
+      <c r="I88" s="82"/>
+    </row>
+    <row r="89" spans="1:9" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A89" s="66"/>
+      <c r="B89" s="66"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="66"/>
+      <c r="E89" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H89" s="66"/>
+      <c r="I89" s="82"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="67"/>
+      <c r="B90" s="67"/>
+      <c r="C90" s="67"/>
+      <c r="D90" s="67"/>
+      <c r="E90" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" s="67"/>
+      <c r="I90" s="77"/>
+    </row>
+    <row r="91" spans="1:9" ht="51" x14ac:dyDescent="0.3">
+      <c r="A91" s="65" t="s">
+        <v>342</v>
+      </c>
+      <c r="B91" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="C91" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H91" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="I91" s="76" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="67"/>
+      <c r="B92" s="67"/>
+      <c r="C92" s="67"/>
+      <c r="D92" s="67"/>
+      <c r="E92" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H92" s="67"/>
+      <c r="I92" s="77"/>
+    </row>
+    <row r="93" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A93" s="36" t="s">
         <v>348</v>
       </c>
-      <c r="B89" s="36" t="s">
+      <c r="B93" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E89" s="1" t="s">
+      <c r="D93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="G93" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="H89" s="36" t="s">
+      <c r="H93" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="I89" s="7" t="s">
+      <c r="I93" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A90" s="36" t="s">
+    <row r="94" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A94" s="36" t="s">
         <v>351</v>
       </c>
-      <c r="B90" s="36" t="s">
+      <c r="B94" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D90" s="1" t="s">
+      <c r="C94" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" s="2" t="s">
+      <c r="F94" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="H90" s="36" t="s">
+      <c r="H94" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="I90" s="7" t="s">
+      <c r="I94" s="7" t="s">
         <v>278</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A35:A45"/>
+    <mergeCell ref="B35:B45"/>
+    <mergeCell ref="H35:H45"/>
+    <mergeCell ref="I35:I45"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="H87:H90"/>
+    <mergeCell ref="I87:I90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A33:I33"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C83:C86"/>
-    <mergeCell ref="D83:D86"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="A31:A41"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="H31:H41"/>
-    <mergeCell ref="I31:I41"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="H83:H86"/>
-    <mergeCell ref="I83:I86"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="H25:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7452,10 +7567,10 @@
       <c r="F3" s="84"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="64" t="s">
         <v>357</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="64" t="s">
         <v>184</v>
       </c>
       <c r="C4" s="34" t="s">
@@ -7472,8 +7587,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="34" t="s">
         <v>24</v>
       </c>
@@ -7488,8 +7603,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
-      <c r="B6" s="69"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="34" t="s">
         <v>24</v>
       </c>
@@ -7504,8 +7619,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="34" t="s">
         <v>132</v>
       </c>
@@ -7520,8 +7635,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
-      <c r="B8" s="69"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="1" t="s">
         <v>132</v>
       </c>
@@ -7536,8 +7651,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="69"/>
-      <c r="B9" s="69"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="34" t="s">
         <v>24</v>
       </c>
@@ -7552,10 +7667,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="61" t="s">
         <v>367</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="61" t="s">
         <v>192</v>
       </c>
       <c r="C10" s="34" t="s">
@@ -7572,8 +7687,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="34" t="s">
         <v>132</v>
       </c>
@@ -7588,8 +7703,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="34" t="s">
         <v>132</v>
       </c>
@@ -7604,8 +7719,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="34" t="s">
         <v>132</v>
       </c>
@@ -7620,8 +7735,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="34" t="s">
         <v>132</v>
       </c>
@@ -7636,8 +7751,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="34" t="s">
         <v>132</v>
       </c>
@@ -7652,8 +7767,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="34" t="s">
         <v>24</v>
       </c>
@@ -7726,6 +7841,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004BB6C9E17737634187DD2FC7CA1A01CE" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7e44bcf99754519751afdaeb4bc3eef6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="baf7ed4e-a4b9-4739-95be-a4aa9c59f485" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e523240909f0c0e5ed3826c545cdfd54" ns2:_="">
     <xsd:import namespace="baf7ed4e-a4b9-4739-95be-a4aa9c59f485"/>
@@ -7915,12 +8036,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7931,6 +8046,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADB9E6E0-6FAF-45AC-8245-7924F89DA101}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="baf7ed4e-a4b9-4739-95be-a4aa9c59f485"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16AF7A53-87ED-4267-A9A4-A4455CC35064}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7948,22 +8079,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADB9E6E0-6FAF-45AC-8245-7924F89DA101}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="baf7ed4e-a4b9-4739-95be-a4aa9c59f485"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CF09E7-4CA5-4BB7-B852-B1F464215892}">
   <ds:schemaRefs>
